--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -79,7 +79,13 @@
     <t xml:space="preserve">G5</t>
   </si>
   <si>
-    <t xml:space="preserve">Kemal</t>
+    <t xml:space="preserve">Ergün Ateş</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gülhan Koca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nail Acar</t>
   </si>
 </sst>
 </file>
@@ -194,10 +200,10 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="3:6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.3"/>
@@ -210,12 +216,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -282,62 +288,178 @@
         <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="I2" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="J3" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="G2" s="0" t="n">
+      <c r="R3" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="M2" s="0" t="n">
+      <c r="F4" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="P4" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>48</v>
+      <c r="Q4" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
